--- a/Royal Match_TC.xlsx
+++ b/Royal Match_TC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\이력서 및 포트폴리오\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ABF16B-7948-4544-A372-BECFEB757708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112905BF-E092-4EDA-86BB-203A03576147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>작성 일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
   </si>
   <si>
     <t>같은 색상의 물건이 4개가 "ㅁ"모양으로 모일 경우 한 칸을 없앨 수 있는 프로펠러 아이템을 만들 수 있는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 접속 후 홈버튼을 눌러 1시간 이상 접속하지 않을 경우 다시 접속했을 때 게임 진행 사항이 이어지는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +461,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -492,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -585,13 +580,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +608,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,23 +641,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,8 +671,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -746,7 +732,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -852,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -994,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399DC24-7DCE-4FAA-9CB5-5462B70B7A25}">
-  <dimension ref="B2:K132"/>
+  <dimension ref="B2:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1020,30 +1006,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>45213</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1054,1262 +1040,869 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
       <c r="K12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>11</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>12</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>13</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>14</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>15</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>16</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>17</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>18</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>19</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>20</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>21</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>22</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>23</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>24</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>25</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>26</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>27</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>29</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>30</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>31</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>32</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>33</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>34</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>35</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>36</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>37</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>38</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>39</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>40</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>41</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>42</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="7"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>43</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>44</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>45</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="13" t="s">
+      <c r="C52" s="17"/>
+      <c r="D52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>46</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="17"/>
+      <c r="D53" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>47</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="17"/>
+      <c r="D54" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>48</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>49</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>50</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>51</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>52</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="17"/>
+      <c r="D59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>53</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="30" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>54</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="7"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>55</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="13" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>56</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>57</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>58</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>59</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="18"/>
+      <c r="D66" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>60</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="8">
+      <c r="E67" s="14"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B68" s="7">
         <v>61</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>62</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>63</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="22"/>
+      <c r="D70" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B71" s="7">
+        <v>64</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B72" s="7">
+        <v>65</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B73" s="7">
+        <v>66</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="7">
+        <v>67</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="7">
+        <v>68</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="7">
+        <v>69</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B77" s="7">
+        <v>70</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B78" s="7">
+        <v>71</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B79" s="7">
+        <v>72</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="7">
+        <v>73</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B81" s="7">
+        <v>74</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B82" s="7">
         <v>75</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B71" s="8">
-        <v>64</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="13" t="s">
+      <c r="C82" s="22"/>
+      <c r="D82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B83" s="7">
         <v>76</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B72" s="8">
-        <v>65</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B73" s="8">
-        <v>66</v>
-      </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="8">
-        <v>67</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="8">
-        <v>68</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="8">
-        <v>69</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="8">
-        <v>70</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="8"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B79" s="8">
-        <v>71</v>
-      </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B80" s="8">
-        <v>72</v>
-      </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="8">
-        <v>73</v>
-      </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="8">
-        <v>74</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B83" s="8">
-        <v>75</v>
-      </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B84" s="8">
-        <v>76</v>
-      </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="8">
-        <v>77</v>
-      </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B86" s="8">
-        <v>78</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B87" s="8">
-        <v>79</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="31" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B88" s="8">
-        <v>80</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B89" s="8">
-        <v>81</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B90" s="8">
-        <v>82</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B91" s="8">
-        <v>83</v>
-      </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B92" s="8">
-        <v>84</v>
-      </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B93" s="8">
-        <v>85</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B94" s="8">
-        <v>86</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B95" s="8">
-        <v>87</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B96" s="8">
-        <v>88</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B97" s="8">
-        <v>89</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B98" s="8">
-        <v>90</v>
-      </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="8">
-        <v>91</v>
-      </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B100" s="8">
-        <v>92</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B101" s="8">
-        <v>93</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B102" s="8">
-        <v>94</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B103" s="8">
-        <v>95</v>
-      </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B104" s="8">
-        <v>96</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="15"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B105" s="8">
-        <v>97</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B106" s="8">
-        <v>98</v>
-      </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B107" s="8">
-        <v>86</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B108" s="8">
-        <v>87</v>
-      </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B109" s="8">
-        <v>88</v>
-      </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B110" s="8">
-        <v>89</v>
-      </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="15"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B111" s="8">
-        <v>90</v>
-      </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B112" s="8">
-        <v>91</v>
-      </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="15"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B113" s="8">
-        <v>92</v>
-      </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B114" s="8">
-        <v>93</v>
-      </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B115" s="8">
-        <v>94</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B116" s="8">
-        <v>95</v>
-      </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="8">
-        <v>96</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="15"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B118" s="8">
-        <v>97</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="15"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B119" s="8">
-        <v>98</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="15"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B120" s="8">
-        <v>99</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="15"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B121" s="8">
-        <v>100</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="15"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B122" s="8">
-        <v>101</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="15"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B123" s="8">
-        <v>102</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="15"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B124" s="8">
-        <v>103</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="15"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="8">
-        <v>104</v>
-      </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="15"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B126" s="8">
-        <v>105</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="15"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B127" s="8">
-        <v>106</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="15"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B128" s="8">
-        <v>107</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="15"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B129" s="8">
-        <v>108</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="15"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B130" s="8">
-        <v>109</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="15"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B131" s="8">
-        <v>110</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="15"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B132" s="8">
-        <v>111</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="15"/>
+      <c r="E83" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C67:C83"/>
     <mergeCell ref="C56:C66"/>
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="C20:C32"/>
